--- a/NRI_STLF_Data/WeatherData/T_ahvaz/T_ahvaz76.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_ahvaz/T_ahvaz76.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last Data\WeatherData\T_ahvaz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_ahvaz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -334,7 +334,7 @@
   <dimension ref="A1:G365"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="D340" sqref="D340"/>
+      <selection activeCell="D337" sqref="D337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
